--- a/spring-boot-drools-dicision-table/src/main/resources/rules/award.xlsx
+++ b/spring-boot-drools-dicision-table/src/main/resources/rules/award.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>RuleSet</t>
   </si>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Campaign campaign</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>merchantName not contains $1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -91,88 +87,88 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">com.asb.example.model.OrderRequest,com.asb.example.model.Campaign
+    <t>$req:OrderRequest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE-EXPIRES</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE-EFFECTIVE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"16-Apr-2021"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"15-Apr-2022"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>todayAwardCnt &lt; $1 &amp;&amp; totalAwardCnt &lt; $2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTIVATION-GROUP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"XorGroup1"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$req.addAward($1,$2);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Rule1Coupon",1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Rule2Coupon",2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$req.mulAward($1);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(findDayOfWeek() &gt;= $1) &amp;&amp; (findDayOfWeek() &lt;= $2)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$req.addAward($1, ($req.getAmount() / $2) * $3 );</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Rule3Coupon",15000, 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">com.asb.example.model.OrderRequest
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$req:OrderRequest</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE-EXPIRES</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE-EFFECTIVE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"16-Apr-2021"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"15-Apr-2022"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>todayAwardCnt &lt; $1 &amp;&amp; totalAwardCnt &lt; $2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTIVATION-GROUP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"XorGroup1"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$req.addAward($1,$2);</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Rule1Coupon",1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Rule2Coupon",2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$req.mulAward($1);</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(findDayOfWeek() &gt;= $1) &amp;&amp; (findDayOfWeek() &lt;= $2)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$req.addAward($1, ($req.getAmount() / $2) * $3 );</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Rule3Coupon",15000, 2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -595,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -631,12 +627,12 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="81.599999999999994" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="61.2" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -652,7 +648,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="b">
         <v>1</v>
@@ -672,9 +668,6 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="21" x14ac:dyDescent="0.4">
@@ -717,13 +710,13 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>5</v>
@@ -737,7 +730,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -747,31 +740,31 @@
     </row>
     <row r="9" spans="1:13" ht="102" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -780,59 +773,59 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="4">
         <v>15000</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="I11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="4">
         <v>15000</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="I12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>9</v>
@@ -841,39 +834,39 @@
         <v>10000</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="I13" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M14" s="4">
         <v>2</v>
